--- a/benchmarks/mc2022/clauses-optimizations.xlsx
+++ b/benchmarks/mc2022/clauses-optimizations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryant/repos/model-counting/benchmarks/mc2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40323582-A9DC-114D-BCF4-C22C60885AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101FCB6E-6AA4-ED45-8D6A-0E366B4EC002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61660" yWindow="5820" windowWidth="32920" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52720" yWindow="6100" windowWidth="43060" windowHeight="21160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="clauses-optimizations" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>mc2022_track1_005</t>
   </si>
@@ -309,6 +309,12 @@
   </si>
   <si>
     <t>Threshold</t>
+  </si>
+  <si>
+    <t>Rthreshold</t>
+  </si>
+  <si>
+    <t>Athreshold</t>
   </si>
 </sst>
 </file>
@@ -1152,20 +1158,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:AB81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="9" max="11" width="10.83203125" style="1"/>
+    <col min="6" max="11" width="10.83203125" style="1"/>
     <col min="13" max="20" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -1181,13 +1187,13 @@
       <c r="E1" t="s">
         <v>84</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1226,8 +1232,32 @@
       <c r="T1" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1243,15 +1273,15 @@
       <c r="E2">
         <v>485781</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>C2/$B2</f>
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f t="shared" ref="G2:H2" si="0">D2/$B2</f>
         <v>3.00246609886646</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <f t="shared" si="0"/>
         <v>3.00246609886646</v>
       </c>
@@ -1299,8 +1329,39 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2" s="3">
+        <f>U$2*B2</f>
+        <v>323588</v>
+      </c>
+      <c r="W2">
+        <f>IF(C2&gt;$V2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:Y2" si="3">IF(D2&gt;$V2,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>SUM(W:W)</f>
+        <v>47</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" ref="AA2:AB2" si="4">SUM(X:X)</f>
+        <v>14</v>
+      </c>
+      <c r="AB2" s="3">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1316,16 +1377,16 @@
       <c r="E3">
         <v>3978</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F66" si="3">C3/$B3</f>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F66" si="5">C3/$B3</f>
         <v>1.6595744680851063</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G66" si="4">D3/$B3</f>
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H66" si="5">E3/$B3</f>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G66" si="6">D3/$B3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H66" si="7">E3/$B3</f>
         <v>1.6595744680851063</v>
       </c>
       <c r="I3" s="1">
@@ -1333,31 +1394,47 @@
         <v>0.99573078854846808</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:K3" si="6">MIN(G:G)</f>
+        <f t="shared" ref="J3:K3" si="8">MIN(G:G)</f>
         <v>0.84259893608446845</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99250158099195951</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M66" si="7">IF(B3&gt;$L$2,1,0)</f>
+        <f t="shared" ref="M3:M66" si="9">IF(B3&gt;$L$2,1,0)</f>
         <v>0</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N66" si="8">IF(C3&gt;$L$2,1,0)</f>
+        <f t="shared" ref="N3:N66" si="10">IF(C3&gt;$L$2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O3" s="3">
-        <f t="shared" ref="O3:O66" si="9">IF(D3&gt;$L$2,1,0)</f>
+        <f t="shared" ref="O3:O66" si="11">IF(D3&gt;$L$2,1,0)</f>
         <v>0</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:P66" si="10">IF(E3&gt;$L$2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P3:P66" si="12">IF(E3&gt;$L$2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <f t="shared" ref="V3:V66" si="13">U$2*B3</f>
+        <v>4794</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:W66" si="14">IF(C3&gt;$V3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" ref="X3:X66" si="15">IF(D3&gt;$V3,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y66" si="16">IF(E3&gt;$V3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1373,18 +1450,18 @@
       <c r="E4">
         <v>21259</v>
       </c>
-      <c r="F4">
-        <f t="shared" si="3"/>
-        <v>4.8021233340862883</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="1">
         <f t="shared" si="5"/>
         <v>4.8021233340862883</v>
       </c>
+      <c r="G4" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="7"/>
+        <v>4.8021233340862883</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>89</v>
       </c>
@@ -1395,23 +1472,39 @@
         <v>89</v>
       </c>
       <c r="M4" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N4" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <f t="shared" si="13"/>
+        <v>8854</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1427,16 +1520,16 @@
       <c r="E5">
         <v>1121707</v>
       </c>
-      <c r="F5">
-        <f t="shared" si="3"/>
+      <c r="F5" s="1">
+        <f t="shared" si="5"/>
         <v>4.2752379246340135</v>
       </c>
-      <c r="G5">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="5"/>
+      <c r="G5" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="7"/>
         <v>4.2752379246340135</v>
       </c>
       <c r="I5" s="1">
@@ -1444,31 +1537,47 @@
         <v>52.535619294083816</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" ref="J5:K5" si="11">MAX(G:G)</f>
+        <f t="shared" ref="J5:K5" si="17">MAX(G:G)</f>
         <v>39.599919492024092</v>
       </c>
       <c r="K5" s="1">
+        <f t="shared" si="17"/>
+        <v>52.535619294083816</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
         <f t="shared" si="11"/>
-        <v>52.535619294083816</v>
-      </c>
-      <c r="M5" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <f t="shared" si="13"/>
+        <v>524746</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1484,18 +1593,18 @@
       <c r="E6">
         <v>34213</v>
       </c>
-      <c r="F6">
-        <f t="shared" si="3"/>
-        <v>5.6299160770116838</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="1">
         <f t="shared" si="5"/>
         <v>5.6299160770116838</v>
       </c>
+      <c r="G6" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="7"/>
+        <v>5.6299160770116838</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>90</v>
       </c>
@@ -1506,23 +1615,39 @@
         <v>90</v>
       </c>
       <c r="M6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N6" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O6" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" si="13"/>
+        <v>12154</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1538,16 +1663,16 @@
       <c r="E7">
         <v>554</v>
       </c>
-      <c r="F7">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="F7" s="1">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="I7" s="1">
@@ -1555,31 +1680,47 @@
         <v>2.1144800217496718</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:K7" si="12">HARMEAN(G:G)</f>
+        <f t="shared" ref="J7:K7" si="18">HARMEAN(G:G)</f>
         <v>1.1798390816270741</v>
       </c>
       <c r="K7" s="1">
+        <f t="shared" si="18"/>
+        <v>2.9485245672918765</v>
+      </c>
+      <c r="M7" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
         <f t="shared" si="12"/>
-        <v>2.9485245672918765</v>
-      </c>
-      <c r="M7" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" si="13"/>
+        <v>1108</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1595,36 +1736,52 @@
       <c r="E8">
         <v>409121</v>
       </c>
-      <c r="F8">
-        <f t="shared" si="3"/>
-        <v>28.464551589786407</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H8">
+      <c r="F8" s="1">
         <f t="shared" si="5"/>
         <v>28.464551589786407</v>
       </c>
+      <c r="G8" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="7"/>
+        <v>28.464551589786407</v>
+      </c>
       <c r="M8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N8" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O8" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="13"/>
+        <v>28746</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1640,36 +1797,52 @@
       <c r="E9">
         <v>13054611</v>
       </c>
-      <c r="F9">
-        <f t="shared" si="3"/>
+      <c r="F9" s="1">
+        <f t="shared" si="5"/>
         <v>10.748288469681816</v>
       </c>
-      <c r="G9">
-        <f t="shared" si="4"/>
+      <c r="G9" s="1">
+        <f t="shared" si="6"/>
         <v>1.003568056706645</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="5"/>
+      <c r="H9" s="1">
+        <f t="shared" si="7"/>
         <v>10.754927806786146</v>
       </c>
       <c r="M9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O9" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P9" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="13"/>
+        <v>2427652</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1685,36 +1858,52 @@
       <c r="E10">
         <v>166175</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>2.0319760332599657</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H10">
+      <c r="F10" s="1">
         <f t="shared" si="5"/>
         <v>2.0319760332599657</v>
       </c>
+      <c r="G10" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="7"/>
+        <v>2.0319760332599657</v>
+      </c>
       <c r="M10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="13"/>
+        <v>163560</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1730,36 +1919,52 @@
       <c r="E11">
         <v>32958</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="3"/>
+      <c r="F11" s="1">
+        <f t="shared" si="5"/>
         <v>0.99978920107206315</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="4"/>
+      <c r="G11" s="1">
+        <f t="shared" si="6"/>
         <v>0.99271237991989636</v>
       </c>
-      <c r="H11">
-        <f t="shared" si="5"/>
+      <c r="H11" s="1">
+        <f t="shared" si="7"/>
         <v>0.99250158099195951</v>
       </c>
       <c r="M11" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N11" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O11" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P11" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" si="13"/>
+        <v>66414</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1775,36 +1980,52 @@
       <c r="E12">
         <v>6455470</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="3"/>
+      <c r="F12" s="1">
+        <f t="shared" si="5"/>
         <v>5.7770797537227949</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
+      <c r="G12" s="1">
+        <f t="shared" si="6"/>
         <v>0.99993735681557849</v>
       </c>
-      <c r="H12">
-        <f t="shared" si="5"/>
+      <c r="H12" s="1">
+        <f t="shared" si="7"/>
         <v>5.7770171105383739</v>
       </c>
       <c r="M12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" si="13"/>
+        <v>2234880</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1820,36 +2041,52 @@
       <c r="E13">
         <v>132185638</v>
       </c>
-      <c r="F13">
-        <f t="shared" si="3"/>
+      <c r="F13" s="1">
+        <f t="shared" si="5"/>
         <v>34.754148053312441</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="4"/>
+      <c r="G13" s="1">
+        <f t="shared" si="6"/>
         <v>0.98234092883317403</v>
       </c>
-      <c r="H13">
-        <f t="shared" si="5"/>
+      <c r="H13" s="1">
+        <f t="shared" si="7"/>
         <v>34.700613784570827</v>
       </c>
       <c r="M13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O13" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P13" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" si="13"/>
+        <v>7618634</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1865,36 +2102,52 @@
       <c r="E14">
         <v>19703716</v>
       </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
+      <c r="F14" s="1">
+        <f t="shared" si="5"/>
         <v>8.9079045400787731</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
+      <c r="G14" s="1">
+        <f t="shared" si="6"/>
         <v>0.99996835362920578</v>
       </c>
-      <c r="H14">
-        <f t="shared" si="5"/>
+      <c r="H14" s="1">
+        <f t="shared" si="7"/>
         <v>8.9078728937079781</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="13"/>
+        <v>4423888</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1910,36 +2163,52 @@
       <c r="E15">
         <v>31208047</v>
       </c>
-      <c r="F15">
-        <f t="shared" si="3"/>
+      <c r="F15" s="1">
+        <f t="shared" si="5"/>
         <v>13.056179540526616</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="4"/>
+      <c r="G15" s="1">
+        <f t="shared" si="6"/>
         <v>0.99148563116686883</v>
       </c>
-      <c r="H15">
-        <f t="shared" si="5"/>
+      <c r="H15" s="1">
+        <f t="shared" si="7"/>
         <v>13.040676419301743</v>
       </c>
       <c r="M15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="13"/>
+        <v>4786262</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1955,36 +2224,52 @@
       <c r="E16">
         <v>61459</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="3"/>
-        <v>7.8281747548083045</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H16">
+      <c r="F16" s="1">
         <f t="shared" si="5"/>
         <v>7.8281747548083045</v>
       </c>
+      <c r="G16" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="7"/>
+        <v>7.8281747548083045</v>
+      </c>
       <c r="M16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P16" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" si="13"/>
+        <v>15702</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2000,36 +2285,52 @@
       <c r="E17">
         <v>235535</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="3"/>
-        <v>17.834103127129552</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H17">
+      <c r="F17" s="1">
         <f t="shared" si="5"/>
         <v>17.834103127129552</v>
       </c>
+      <c r="G17" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="7"/>
+        <v>17.834103127129552</v>
+      </c>
       <c r="M17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="13"/>
+        <v>26414</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2045,36 +2346,52 @@
       <c r="E18">
         <v>1884300</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
-        <v>2.61006877350454</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="F18" s="1">
         <f t="shared" si="5"/>
         <v>2.61006877350454</v>
       </c>
+      <c r="G18" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="7"/>
+        <v>2.61006877350454</v>
+      </c>
       <c r="M18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N18" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <f t="shared" si="13"/>
+        <v>1443870</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2090,36 +2407,52 @@
       <c r="E19">
         <v>632173</v>
       </c>
-      <c r="F19">
-        <f t="shared" si="3"/>
-        <v>48.253797420044272</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H19">
+      <c r="F19" s="1">
         <f t="shared" si="5"/>
         <v>48.253797420044272</v>
       </c>
+      <c r="G19" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="7"/>
+        <v>48.253797420044272</v>
+      </c>
       <c r="M19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O19" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <f t="shared" si="13"/>
+        <v>26202</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -2135,36 +2468,52 @@
       <c r="E20">
         <v>231160040</v>
       </c>
-      <c r="F20">
-        <f t="shared" si="3"/>
+      <c r="F20" s="1">
+        <f t="shared" si="5"/>
         <v>43.823987319785928</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="4"/>
+      <c r="G20" s="1">
+        <f t="shared" si="6"/>
         <v>1.0017010736996674</v>
       </c>
-      <c r="H20">
-        <f t="shared" si="5"/>
+      <c r="H20" s="1">
+        <f t="shared" si="7"/>
         <v>43.832378158297132</v>
       </c>
       <c r="M20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O20" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" si="13"/>
+        <v>10547456</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2180,36 +2529,52 @@
       <c r="E21">
         <v>49977</v>
       </c>
-      <c r="F21">
-        <f t="shared" si="3"/>
+      <c r="F21" s="1">
+        <f t="shared" si="5"/>
         <v>0.9999782981401506</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="4"/>
+      <c r="G21" s="1">
+        <f t="shared" si="6"/>
         <v>1.084615551552768</v>
       </c>
-      <c r="H21">
-        <f t="shared" si="5"/>
+      <c r="H21" s="1">
+        <f t="shared" si="7"/>
         <v>1.0845938496929186</v>
       </c>
       <c r="M21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <f t="shared" si="13"/>
+        <v>92158</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2225,36 +2590,52 @@
       <c r="E22">
         <v>4141484</v>
       </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
+      <c r="F22" s="1">
+        <f t="shared" si="5"/>
         <v>2.5611711054382611</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
+      <c r="G22" s="1">
+        <f t="shared" si="6"/>
         <v>1.0344315087013558</v>
       </c>
-      <c r="H22">
-        <f t="shared" si="5"/>
+      <c r="H22" s="1">
+        <f t="shared" si="7"/>
         <v>2.5982570311308972</v>
       </c>
       <c r="M22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <f t="shared" si="13"/>
+        <v>3187894</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2270,36 +2651,52 @@
       <c r="E23">
         <v>99513</v>
       </c>
-      <c r="F23">
-        <f t="shared" si="3"/>
+      <c r="F23" s="1">
+        <f t="shared" si="5"/>
         <v>0.99984835848055198</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="4"/>
+      <c r="G23" s="1">
+        <f t="shared" si="6"/>
         <v>3.7727272727272729</v>
       </c>
-      <c r="H23">
-        <f t="shared" si="5"/>
+      <c r="H23" s="1">
+        <f t="shared" si="7"/>
         <v>3.7725756312078249</v>
       </c>
       <c r="M23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <f t="shared" si="13"/>
+        <v>52756</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2315,36 +2712,52 @@
       <c r="E24">
         <v>2596915</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="3"/>
-        <v>2.760270572766919</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H24">
+      <c r="F24" s="1">
         <f t="shared" si="5"/>
         <v>2.760270572766919</v>
       </c>
+      <c r="G24" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="7"/>
+        <v>2.760270572766919</v>
+      </c>
       <c r="M24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <f t="shared" si="13"/>
+        <v>1881638</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2360,36 +2773,52 @@
       <c r="E25">
         <v>14003661</v>
       </c>
-      <c r="F25">
-        <f t="shared" si="3"/>
+      <c r="F25" s="1">
+        <f t="shared" si="5"/>
         <v>4.9772011664916223</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="4"/>
+      <c r="G25" s="1">
+        <f t="shared" si="6"/>
         <v>0.99999822289515261</v>
       </c>
-      <c r="H25">
-        <f t="shared" si="5"/>
+      <c r="H25" s="1">
+        <f t="shared" si="7"/>
         <v>4.9771947689141713</v>
       </c>
       <c r="M25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N25" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O25" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V25" s="3">
+        <f t="shared" si="13"/>
+        <v>5627130</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2405,36 +2834,52 @@
       <c r="E26">
         <v>197652</v>
       </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
+      <c r="F26" s="1">
+        <f t="shared" si="5"/>
         <v>0.99573078854846808</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
+      <c r="G26" s="1">
+        <f t="shared" si="6"/>
         <v>8.2769964841788042</v>
       </c>
-      <c r="H26">
-        <f t="shared" si="5"/>
+      <c r="H26" s="1">
+        <f t="shared" si="7"/>
         <v>8.2727272727272734</v>
       </c>
       <c r="M26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <f t="shared" si="13"/>
+        <v>47784</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2450,36 +2895,52 @@
       <c r="E27">
         <v>10761966</v>
       </c>
-      <c r="F27">
-        <f t="shared" si="3"/>
+      <c r="F27" s="1">
+        <f t="shared" si="5"/>
         <v>3.3721032810549092</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="4"/>
+      <c r="G27" s="1">
+        <f t="shared" si="6"/>
         <v>1.0331662018500272</v>
       </c>
-      <c r="H27">
-        <f t="shared" si="5"/>
+      <c r="H27" s="1">
+        <f t="shared" si="7"/>
         <v>3.4052694829049361</v>
       </c>
       <c r="M27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V27" s="3">
+        <f t="shared" si="13"/>
+        <v>6320772</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2495,36 +2956,52 @@
       <c r="E28">
         <v>4412263</v>
       </c>
-      <c r="F28">
-        <f t="shared" si="3"/>
+      <c r="F28" s="1">
+        <f t="shared" si="5"/>
         <v>1.0945261329013398</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="4"/>
+      <c r="G28" s="1">
+        <f t="shared" si="6"/>
         <v>0.99658224871268664</v>
       </c>
-      <c r="H28">
-        <f t="shared" si="5"/>
+      <c r="H28" s="1">
+        <f t="shared" si="7"/>
         <v>1.0910945335515063</v>
       </c>
       <c r="M28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N28" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O28" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <f t="shared" si="13"/>
+        <v>8087774</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2540,36 +3017,52 @@
       <c r="E29">
         <v>3539075</v>
       </c>
-      <c r="F29">
-        <f t="shared" si="3"/>
+      <c r="F29" s="1">
+        <f t="shared" si="5"/>
         <v>1.935752408918056</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="4"/>
+      <c r="G29" s="1">
+        <f t="shared" si="6"/>
         <v>1.1401815215880235</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="5"/>
+      <c r="H29" s="1">
+        <f t="shared" si="7"/>
         <v>2.0759339305060798</v>
       </c>
       <c r="M29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N29" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O29" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <f t="shared" si="13"/>
+        <v>3409622</v>
+      </c>
+      <c r="W29">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2585,36 +3078,52 @@
       <c r="E30">
         <v>276658</v>
       </c>
-      <c r="F30">
-        <f t="shared" si="3"/>
+      <c r="F30" s="1">
+        <f t="shared" si="5"/>
         <v>1.0311802771050855</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
+      <c r="G30" s="1">
+        <f t="shared" si="6"/>
         <v>1.0671483584104173</v>
       </c>
-      <c r="H30">
-        <f t="shared" si="5"/>
+      <c r="H30" s="1">
+        <f t="shared" si="7"/>
         <v>1.0983286355155029</v>
       </c>
       <c r="M30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N30" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O30" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P30" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <f t="shared" si="13"/>
+        <v>503780</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2630,36 +3139,52 @@
       <c r="E31">
         <v>160239</v>
       </c>
-      <c r="F31">
-        <f t="shared" si="3"/>
+      <c r="F31" s="1">
+        <f t="shared" si="5"/>
         <v>1.5088690944692942</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="4"/>
+      <c r="G31" s="1">
+        <f t="shared" si="6"/>
         <v>1.0300819719337313</v>
       </c>
-      <c r="H31">
-        <f t="shared" si="5"/>
+      <c r="H31" s="1">
+        <f t="shared" si="7"/>
         <v>1.5380679963909312</v>
       </c>
       <c r="M31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N31" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O31" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P31" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <f t="shared" si="13"/>
+        <v>208364</v>
+      </c>
+      <c r="W31">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2675,36 +3200,52 @@
       <c r="E32">
         <v>1189458</v>
       </c>
-      <c r="F32">
-        <f t="shared" si="3"/>
+      <c r="F32" s="1">
+        <f t="shared" si="5"/>
         <v>1.0024686618573082</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="4"/>
+      <c r="G32" s="1">
+        <f t="shared" si="6"/>
         <v>6.3395823002809903</v>
       </c>
-      <c r="H32">
-        <f t="shared" si="5"/>
+      <c r="H32" s="1">
+        <f t="shared" si="7"/>
         <v>6.3420509621382983</v>
       </c>
       <c r="M32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <f t="shared" si="13"/>
+        <v>375102</v>
+      </c>
+      <c r="W32">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2720,36 +3261,52 @@
       <c r="E33">
         <v>400347</v>
       </c>
-      <c r="F33">
-        <f t="shared" si="3"/>
+      <c r="F33" s="1">
+        <f t="shared" si="5"/>
         <v>1.5241765401251981</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="4"/>
+      <c r="G33" s="1">
+        <f t="shared" si="6"/>
         <v>0.84259893608446845</v>
       </c>
-      <c r="H33">
-        <f t="shared" si="5"/>
+      <c r="H33" s="1">
+        <f t="shared" si="7"/>
         <v>1.344493028129282</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <f t="shared" si="13"/>
+        <v>595536</v>
+      </c>
+      <c r="W33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2765,36 +3322,52 @@
       <c r="E34">
         <v>434303</v>
       </c>
-      <c r="F34">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="4"/>
+      <c r="F34" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="6"/>
         <v>1.0162890612202873</v>
       </c>
-      <c r="H34">
-        <f t="shared" si="5"/>
+      <c r="H34" s="1">
+        <f t="shared" si="7"/>
         <v>1.0162890612202873</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O34" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <f t="shared" si="13"/>
+        <v>854684</v>
+      </c>
+      <c r="W34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2810,36 +3383,52 @@
       <c r="E35">
         <v>37141202</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="3"/>
+      <c r="F35" s="1">
+        <f t="shared" si="5"/>
         <v>0.9999933714326027</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="4"/>
+      <c r="G35" s="1">
+        <f t="shared" si="6"/>
         <v>4.3963094977546318</v>
       </c>
-      <c r="H35">
-        <f t="shared" si="5"/>
+      <c r="H35" s="1">
+        <f t="shared" si="7"/>
         <v>4.3963028691872346</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V35" s="3">
+        <f t="shared" si="13"/>
+        <v>16896562</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2855,36 +3444,52 @@
       <c r="E36">
         <v>504016</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="4"/>
+      <c r="F36" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="6"/>
         <v>1.0534350506845021</v>
       </c>
-      <c r="H36">
-        <f t="shared" si="5"/>
+      <c r="H36" s="1">
+        <f t="shared" si="7"/>
         <v>1.0534350506845021</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P36" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="3">
+        <f t="shared" si="13"/>
+        <v>956900</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2900,36 +3505,52 @@
       <c r="E37">
         <v>461571</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="4"/>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="6"/>
         <v>1.1543430635028611</v>
       </c>
-      <c r="H37">
-        <f t="shared" si="5"/>
+      <c r="H37" s="1">
+        <f t="shared" si="7"/>
         <v>1.1543430635028611</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="3">
+        <f t="shared" si="13"/>
+        <v>799712</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2945,36 +3566,52 @@
       <c r="E38">
         <v>1034087</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="3"/>
+      <c r="F38" s="1">
+        <f t="shared" si="5"/>
         <v>1.0723925208833536</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="4"/>
+      <c r="G38" s="1">
+        <f t="shared" si="6"/>
         <v>2.3357707919489346</v>
       </c>
-      <c r="H38">
-        <f t="shared" si="5"/>
+      <c r="H38" s="1">
+        <f t="shared" si="7"/>
         <v>2.4081633128322881</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P38" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="3">
+        <f t="shared" si="13"/>
+        <v>858818</v>
+      </c>
+      <c r="W38">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2990,36 +3627,52 @@
       <c r="E39">
         <v>1562388</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="3"/>
+      <c r="F39" s="1">
+        <f t="shared" si="5"/>
         <v>1.0172388161550385</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="4"/>
+      <c r="G39" s="1">
+        <f t="shared" si="6"/>
         <v>1.8863775942913406</v>
       </c>
-      <c r="H39">
-        <f t="shared" si="5"/>
+      <c r="H39" s="1">
+        <f t="shared" si="7"/>
         <v>1.9038467162534973</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O39" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P39" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="3">
+        <f t="shared" si="13"/>
+        <v>1641296</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3035,36 +3688,52 @@
       <c r="E40">
         <v>6989469</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="4"/>
+      <c r="F40" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="6"/>
         <v>4.1166659893382622</v>
       </c>
-      <c r="H40">
-        <f t="shared" si="5"/>
+      <c r="H40" s="1">
+        <f t="shared" si="7"/>
         <v>4.1166659893382622</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O40" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P40" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="3">
+        <f t="shared" si="13"/>
+        <v>3395694</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3080,36 +3749,52 @@
       <c r="E41">
         <v>15131197</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="4"/>
+      <c r="F41" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="6"/>
         <v>11.848675488650681</v>
       </c>
-      <c r="H41">
-        <f t="shared" si="5"/>
+      <c r="H41" s="1">
+        <f t="shared" si="7"/>
         <v>11.848675488650681</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P41" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V41" s="3">
+        <f t="shared" si="13"/>
+        <v>2554074</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3125,36 +3810,52 @@
       <c r="E42">
         <v>7019910</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="3"/>
+      <c r="F42" s="1">
+        <f t="shared" si="5"/>
         <v>1.0014172812482656</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="4"/>
+      <c r="G42" s="1">
+        <f t="shared" si="6"/>
         <v>1.5204823916301271</v>
       </c>
-      <c r="H42">
-        <f t="shared" si="5"/>
+      <c r="H42" s="1">
+        <f t="shared" si="7"/>
         <v>1.5219805426819115</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <f t="shared" si="13"/>
+        <v>9224704</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3170,36 +3871,52 @@
       <c r="E43">
         <v>2518272</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="4"/>
+      <c r="F43" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="6"/>
         <v>1.0073075912308904</v>
       </c>
-      <c r="H43">
-        <f t="shared" si="5"/>
+      <c r="H43" s="1">
+        <f t="shared" si="7"/>
         <v>1.0073075912308904</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <f t="shared" si="13"/>
+        <v>5000006</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3215,36 +3932,52 @@
       <c r="E44">
         <v>952303</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="3"/>
+      <c r="F44" s="1">
+        <f t="shared" si="5"/>
         <v>1.1338718125758911</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="4"/>
+      <c r="G44" s="1">
+        <f t="shared" si="6"/>
         <v>0.99979524297040545</v>
       </c>
-      <c r="H44">
-        <f t="shared" si="5"/>
+      <c r="H44" s="1">
+        <f t="shared" si="7"/>
         <v>1.1336670555462964</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <f t="shared" si="13"/>
+        <v>1680040</v>
+      </c>
+      <c r="W44">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3260,36 +3993,52 @@
       <c r="E45">
         <v>2179128</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="4"/>
+      <c r="F45" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="6"/>
         <v>1.0107741546453917</v>
       </c>
-      <c r="H45">
-        <f t="shared" si="5"/>
+      <c r="H45" s="1">
+        <f t="shared" si="7"/>
         <v>1.0107741546453917</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <f t="shared" si="13"/>
+        <v>4311800</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3305,36 +4054,52 @@
       <c r="E46">
         <v>26691527</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="4"/>
+      <c r="F46" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="6"/>
         <v>5.593923071087171</v>
       </c>
-      <c r="H46">
-        <f t="shared" si="5"/>
+      <c r="H46" s="1">
+        <f t="shared" si="7"/>
         <v>5.593923071087171</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P46" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V46" s="3">
+        <f t="shared" si="13"/>
+        <v>9543044</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3350,36 +4115,52 @@
       <c r="E47">
         <v>6098590</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="4"/>
+      <c r="F47" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="6"/>
         <v>0.99998442287148792</v>
       </c>
-      <c r="H47">
-        <f t="shared" si="5"/>
+      <c r="H47" s="1">
+        <f t="shared" si="7"/>
         <v>0.99998442287148792</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P47" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <f t="shared" si="13"/>
+        <v>12197370</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3395,36 +4176,52 @@
       <c r="E48">
         <v>24302650</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="3"/>
+      <c r="F48" s="1">
+        <f t="shared" si="5"/>
         <v>4.4004346892132835</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="4"/>
+      <c r="G48" s="1">
+        <f t="shared" si="6"/>
         <v>2.0972294561020255</v>
       </c>
-      <c r="H48">
-        <f t="shared" si="5"/>
+      <c r="H48" s="1">
+        <f t="shared" si="7"/>
         <v>5.5009892778622458</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O48" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V48" s="3">
+        <f t="shared" si="13"/>
+        <v>8835738</v>
+      </c>
+      <c r="W48">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3440,36 +4237,52 @@
       <c r="E49">
         <v>1386864</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="3"/>
-        <v>4.8162023628445816</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H49">
+      <c r="F49" s="1">
         <f t="shared" si="5"/>
         <v>4.8162023628445816</v>
       </c>
+      <c r="G49" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="7"/>
+        <v>4.8162023628445816</v>
+      </c>
       <c r="M49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P49" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <f t="shared" si="13"/>
+        <v>575916</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3485,36 +4298,52 @@
       <c r="E50">
         <v>459492</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="3"/>
-        <v>3.3757383408269419</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H50">
+      <c r="F50" s="1">
         <f t="shared" si="5"/>
         <v>3.3757383408269419</v>
       </c>
+      <c r="G50" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="7"/>
+        <v>3.3757383408269419</v>
+      </c>
       <c r="M50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <f t="shared" si="13"/>
+        <v>272232</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3530,36 +4359,52 @@
       <c r="E51">
         <v>1597450</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="3"/>
-        <v>5.3470234807785646</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H51">
+      <c r="F51" s="1">
         <f t="shared" si="5"/>
         <v>5.3470234807785646</v>
       </c>
+      <c r="G51" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="7"/>
+        <v>5.3470234807785646</v>
+      </c>
       <c r="M51" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P51" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <f t="shared" si="13"/>
+        <v>597510</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -3575,36 +4420,52 @@
       <c r="E52">
         <v>67655</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="3"/>
-        <v>8.6173735829830598</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H52">
+      <c r="F52" s="1">
         <f t="shared" si="5"/>
         <v>8.6173735829830598</v>
       </c>
+      <c r="G52" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="7"/>
+        <v>8.6173735829830598</v>
+      </c>
       <c r="M52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <f t="shared" si="13"/>
+        <v>15702</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X52">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -3620,36 +4481,52 @@
       <c r="E53">
         <v>730823</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="3"/>
-        <v>52.535619294083816</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H53">
+      <c r="F53" s="1">
         <f t="shared" si="5"/>
         <v>52.535619294083816</v>
       </c>
+      <c r="G53" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="7"/>
+        <v>52.535619294083816</v>
+      </c>
       <c r="M53" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N53" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P53" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <f t="shared" si="13"/>
+        <v>27822</v>
+      </c>
+      <c r="W53">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -3665,36 +4542,52 @@
       <c r="E54">
         <v>8055601</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="3"/>
+      <c r="F54" s="1">
+        <f t="shared" si="5"/>
         <v>11.418371869148455</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="4"/>
+      <c r="G54" s="1">
+        <f t="shared" si="6"/>
         <v>1.0707937849625209</v>
       </c>
-      <c r="H54">
-        <f t="shared" si="5"/>
+      <c r="H54" s="1">
+        <f t="shared" si="7"/>
         <v>11.821369033992521</v>
       </c>
       <c r="M54" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P54" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <f t="shared" si="13"/>
+        <v>1362888</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -3710,36 +4603,52 @@
       <c r="E55">
         <v>105647</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="3"/>
-        <v>14.403135650988412</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H55">
+      <c r="F55" s="1">
         <f t="shared" si="5"/>
         <v>14.403135650988412</v>
       </c>
+      <c r="G55" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="7"/>
+        <v>14.403135650988412</v>
+      </c>
       <c r="M55" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V55" s="3">
+        <f t="shared" si="13"/>
+        <v>14670</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -3755,36 +4664,52 @@
       <c r="E56">
         <v>2820385</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="3"/>
+      <c r="F56" s="1">
+        <f t="shared" si="5"/>
         <v>9.0912334914046742</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="4"/>
+      <c r="G56" s="1">
+        <f t="shared" si="6"/>
         <v>0.86182970461532649</v>
       </c>
-      <c r="H56">
-        <f t="shared" si="5"/>
+      <c r="H56" s="1">
+        <f t="shared" si="7"/>
         <v>8.8750239939079076</v>
       </c>
       <c r="M56" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N56" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O56" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P56" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="3">
+        <f t="shared" si="13"/>
+        <v>635578</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -3800,36 +4725,52 @@
       <c r="E57">
         <v>4823687</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="3"/>
+      <c r="F57" s="1">
+        <f t="shared" si="5"/>
         <v>3.127131217498313</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="4"/>
+      <c r="G57" s="1">
+        <f t="shared" si="6"/>
         <v>0.9531584941050375</v>
       </c>
-      <c r="H57">
-        <f t="shared" si="5"/>
+      <c r="H57" s="1">
+        <f t="shared" si="7"/>
         <v>2.9919459082608868</v>
       </c>
       <c r="M57" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N57" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O57" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P57" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <f t="shared" si="13"/>
+        <v>3224448</v>
+      </c>
+      <c r="W57">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -3845,36 +4786,52 @@
       <c r="E58">
         <v>11406350</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="3"/>
+      <c r="F58" s="1">
+        <f t="shared" si="5"/>
         <v>6.5793186508682693</v>
       </c>
-      <c r="G58">
-        <f t="shared" si="4"/>
+      <c r="G58" s="1">
+        <f t="shared" si="6"/>
         <v>0.99995962341334432</v>
       </c>
-      <c r="H58">
-        <f t="shared" si="5"/>
+      <c r="H58" s="1">
+        <f t="shared" si="7"/>
         <v>6.5792782742816138</v>
       </c>
       <c r="M58" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O58" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V58" s="3">
+        <f t="shared" si="13"/>
+        <v>3467356</v>
+      </c>
+      <c r="W58">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -3890,36 +4847,52 @@
       <c r="E59">
         <v>7590552</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="3"/>
+      <c r="F59" s="1">
+        <f t="shared" si="5"/>
         <v>9.4614542771243517</v>
       </c>
-      <c r="G59">
-        <f t="shared" si="4"/>
+      <c r="G59" s="1">
+        <f t="shared" si="6"/>
         <v>0.99991274736123092</v>
       </c>
-      <c r="H59">
-        <f t="shared" si="5"/>
+      <c r="H59" s="1">
+        <f t="shared" si="7"/>
         <v>9.4613670244855825</v>
       </c>
       <c r="M59" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <f t="shared" si="13"/>
+        <v>1604536</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -3935,36 +4908,52 @@
       <c r="E60">
         <v>8643881</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="3"/>
+      <c r="F60" s="1">
+        <f t="shared" si="5"/>
         <v>8.5896728572152572</v>
       </c>
-      <c r="G60">
-        <f t="shared" si="4"/>
+      <c r="G60" s="1">
+        <f t="shared" si="6"/>
         <v>0.99993043955246796</v>
       </c>
-      <c r="H60">
-        <f t="shared" si="5"/>
+      <c r="H60" s="1">
+        <f t="shared" si="7"/>
         <v>8.5896032967677254</v>
       </c>
       <c r="M60" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O60" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <f t="shared" si="13"/>
+        <v>2012638</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -3980,36 +4969,52 @@
       <c r="E61">
         <v>70518468</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="3"/>
+      <c r="F61" s="1">
+        <f t="shared" si="5"/>
         <v>20.784861136408118</v>
       </c>
-      <c r="G61">
-        <f t="shared" si="4"/>
+      <c r="G61" s="1">
+        <f t="shared" si="6"/>
         <v>1.0115786325919187</v>
       </c>
-      <c r="H61">
-        <f t="shared" si="5"/>
+      <c r="H61" s="1">
+        <f t="shared" si="7"/>
         <v>20.817057132727562</v>
       </c>
       <c r="M61" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N61" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O61" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P61" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V61" s="3">
+        <f t="shared" si="13"/>
+        <v>6775066</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4025,36 +5030,52 @@
       <c r="E62">
         <v>18034685</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="3"/>
+      <c r="F62" s="1">
+        <f t="shared" si="5"/>
         <v>8.0783224169580539</v>
       </c>
-      <c r="G62">
-        <f t="shared" si="4"/>
+      <c r="G62" s="1">
+        <f t="shared" si="6"/>
         <v>1.0001917196807419</v>
       </c>
-      <c r="H62">
-        <f t="shared" si="5"/>
+      <c r="H62" s="1">
+        <f t="shared" si="7"/>
         <v>8.0785141366387965</v>
       </c>
       <c r="M62" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N62" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O62" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P62" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V62" s="3">
+        <f t="shared" si="13"/>
+        <v>4464852</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4070,36 +5091,52 @@
       <c r="E63">
         <v>9834258</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="3"/>
+      <c r="F63" s="1">
+        <f t="shared" si="5"/>
         <v>6.8250150597810846</v>
       </c>
-      <c r="G63">
-        <f t="shared" si="4"/>
+      <c r="G63" s="1">
+        <f t="shared" si="6"/>
         <v>0.99995142006101645</v>
       </c>
-      <c r="H63">
-        <f t="shared" si="5"/>
+      <c r="H63" s="1">
+        <f t="shared" si="7"/>
         <v>6.824966479842101</v>
       </c>
       <c r="M63" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N63" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O63" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P63" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <f t="shared" si="13"/>
+        <v>2881848</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4115,36 +5152,52 @@
       <c r="E64">
         <v>15965155</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="3"/>
+      <c r="F64" s="1">
+        <f t="shared" si="5"/>
         <v>8.7516806994886327</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="4"/>
+      <c r="G64" s="1">
+        <f t="shared" si="6"/>
         <v>0.87931250666114968</v>
       </c>
-      <c r="H64">
-        <f t="shared" si="5"/>
+      <c r="H64" s="1">
+        <f t="shared" si="7"/>
         <v>8.3408852485052911</v>
       </c>
       <c r="M64" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N64" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O64" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P64" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V64" s="3">
+        <f t="shared" si="13"/>
+        <v>3828168</v>
+      </c>
+      <c r="W64">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X64">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4160,36 +5213,52 @@
       <c r="E65">
         <v>23909647</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="3"/>
+      <c r="F65" s="1">
+        <f t="shared" si="5"/>
         <v>10.923235380919792</v>
       </c>
-      <c r="G65">
-        <f t="shared" si="4"/>
+      <c r="G65" s="1">
+        <f t="shared" si="6"/>
         <v>0.99996802026236176</v>
       </c>
-      <c r="H65">
-        <f t="shared" si="5"/>
+      <c r="H65" s="1">
+        <f t="shared" si="7"/>
         <v>10.923203401182153</v>
       </c>
       <c r="M65" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O65" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P65" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V65" s="3">
+        <f t="shared" si="13"/>
+        <v>4377772</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X65">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y65">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4205,36 +5274,52 @@
       <c r="E66">
         <v>157319</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="3"/>
-        <v>18.346239067055393</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H66">
+      <c r="F66" s="1">
         <f t="shared" si="5"/>
         <v>18.346239067055393</v>
       </c>
+      <c r="G66" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="7"/>
+        <v>18.346239067055393</v>
+      </c>
       <c r="M66" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N66" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O66" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <f t="shared" si="13"/>
+        <v>17150</v>
+      </c>
+      <c r="W66">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X66">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y66">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4250,36 +5335,52 @@
       <c r="E67">
         <v>44387</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F81" si="13">C67/$B67</f>
+      <c r="F67" s="1">
+        <f t="shared" ref="F67:F81" si="19">C67/$B67</f>
         <v>6.7181776903284396</v>
       </c>
-      <c r="G67">
-        <f t="shared" ref="G67:G81" si="14">D67/$B67</f>
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <f t="shared" ref="H67:H81" si="15">E67/$B67</f>
+      <c r="G67" s="1">
+        <f t="shared" ref="G67:G81" si="20">D67/$B67</f>
+        <v>1</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" ref="H67:H81" si="21">E67/$B67</f>
         <v>6.7181776903284396</v>
       </c>
       <c r="M67" s="3">
-        <f t="shared" ref="M67:M81" si="16">IF(B67&gt;$L$2,1,0)</f>
+        <f t="shared" ref="M67:M81" si="22">IF(B67&gt;$L$2,1,0)</f>
         <v>0</v>
       </c>
       <c r="N67" s="3">
-        <f t="shared" ref="N67:N81" si="17">IF(C67&gt;$L$2,1,0)</f>
+        <f t="shared" ref="N67:N81" si="23">IF(C67&gt;$L$2,1,0)</f>
         <v>0</v>
       </c>
       <c r="O67" s="3">
-        <f t="shared" ref="O67:O81" si="18">IF(D67&gt;$L$2,1,0)</f>
+        <f t="shared" ref="O67:O81" si="24">IF(D67&gt;$L$2,1,0)</f>
         <v>0</v>
       </c>
       <c r="P67" s="3">
-        <f t="shared" ref="P67:P81" si="19">IF(E67&gt;$L$2,1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" ref="P67:P81" si="25">IF(E67&gt;$L$2,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V67" s="3">
+        <f t="shared" ref="V67:V81" si="26">U$2*B67</f>
+        <v>13214</v>
+      </c>
+      <c r="W67">
+        <f t="shared" ref="W67:W81" si="27">IF(C67&gt;$V67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="X67">
+        <f t="shared" ref="X67:X81" si="28">IF(D67&gt;$V67,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" ref="Y67:Y81" si="29">IF(E67&gt;$V67,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4295,36 +5396,52 @@
       <c r="E68">
         <v>38979084</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="13"/>
+      <c r="F68" s="1">
+        <f t="shared" si="19"/>
         <v>9.0615829819916573</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="14"/>
+      <c r="G68" s="1">
+        <f t="shared" si="20"/>
         <v>0.98163639226497168</v>
       </c>
-      <c r="H68">
-        <f t="shared" si="15"/>
+      <c r="H68" s="1">
+        <f t="shared" si="21"/>
         <v>9.0390913945966851</v>
       </c>
       <c r="M68" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N68" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O68" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P68" s="3">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="V68" s="3">
+        <f t="shared" si="26"/>
+        <v>8624558</v>
+      </c>
+      <c r="W68">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="X68">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4340,36 +5457,52 @@
       <c r="E69">
         <v>88619087</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="13"/>
+      <c r="F69" s="1">
+        <f t="shared" si="19"/>
         <v>47.38980195449156</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="14"/>
+      <c r="G69" s="1">
+        <f t="shared" si="20"/>
         <v>1.0054036257932928</v>
       </c>
-      <c r="H69">
-        <f t="shared" si="15"/>
+      <c r="H69" s="1">
+        <f t="shared" si="21"/>
         <v>47.440497750273686</v>
       </c>
       <c r="M69" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N69" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O69" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P69" s="3">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="V69" s="3">
+        <f t="shared" si="26"/>
+        <v>3736010</v>
+      </c>
+      <c r="W69">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="X69">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y69">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4385,36 +5518,52 @@
       <c r="E70">
         <v>53118956</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="13"/>
+      <c r="F70" s="1">
+        <f t="shared" si="19"/>
         <v>15.978538198265079</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="14"/>
+      <c r="G70" s="1">
+        <f t="shared" si="20"/>
         <v>0.99988449105978849</v>
       </c>
-      <c r="H70">
-        <f t="shared" si="15"/>
+      <c r="H70" s="1">
+        <f t="shared" si="21"/>
         <v>15.978422689324868</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O70" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="V70" s="3">
+        <f t="shared" si="26"/>
+        <v>6648836</v>
+      </c>
+      <c r="W70">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="X70">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y70">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4430,36 +5579,52 @@
       <c r="E71">
         <v>86197</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="13"/>
+      <c r="F71" s="1">
+        <f t="shared" si="19"/>
         <v>10.477330740245533</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="15"/>
+      <c r="G71" s="1">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="H71" s="1">
+        <f t="shared" si="21"/>
         <v>10.477330740245533</v>
       </c>
       <c r="M71" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N71" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O71" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P71" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <f t="shared" si="26"/>
+        <v>16454</v>
+      </c>
+      <c r="W71">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="X71">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y71">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4475,36 +5640,52 @@
       <c r="E72">
         <v>1156394</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="13"/>
+      <c r="F72" s="1">
+        <f t="shared" si="19"/>
         <v>1.4468261562998406</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="14"/>
+      <c r="G72" s="1">
+        <f t="shared" si="20"/>
         <v>1.3525187692068308</v>
       </c>
-      <c r="H72">
-        <f t="shared" si="15"/>
+      <c r="H72" s="1">
+        <f t="shared" si="21"/>
         <v>1.7993449255066714</v>
       </c>
       <c r="M72" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N72" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O72" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P72" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
+        <f t="shared" si="26"/>
+        <v>1285350</v>
+      </c>
+      <c r="W72">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y72">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4520,36 +5701,52 @@
       <c r="E73">
         <v>29897435</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="13"/>
+      <c r="F73" s="1">
+        <f t="shared" si="19"/>
         <v>3.7739359166951698</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="14"/>
+      <c r="G73" s="1">
+        <f t="shared" si="20"/>
         <v>1.0360946477115691</v>
       </c>
-      <c r="H73">
-        <f t="shared" si="15"/>
+      <c r="H73" s="1">
+        <f t="shared" si="21"/>
         <v>3.8100290351669091</v>
       </c>
       <c r="M73" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N73" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O73" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P73" s="3">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="V73" s="3">
+        <f t="shared" si="26"/>
+        <v>15694072</v>
+      </c>
+      <c r="W73">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="X73">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y73">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4565,36 +5762,52 @@
       <c r="E74">
         <v>29950665</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="13"/>
+      <c r="F74" s="1">
+        <f t="shared" si="19"/>
         <v>1.4543565246231371</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="14"/>
+      <c r="G74" s="1">
+        <f t="shared" si="20"/>
         <v>39.599919492024092</v>
       </c>
-      <c r="H74">
-        <f t="shared" si="15"/>
+      <c r="H74" s="1">
+        <f t="shared" si="21"/>
         <v>40.054276016647229</v>
       </c>
       <c r="M74" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N74" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O74" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P74" s="3">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="V74" s="3">
+        <f t="shared" si="26"/>
+        <v>1495504</v>
+      </c>
+      <c r="W74">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4610,36 +5823,52 @@
       <c r="E75">
         <v>3709933</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="13"/>
+      <c r="F75" s="1">
+        <f t="shared" si="19"/>
         <v>2.4942317333960893</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="14"/>
+      <c r="G75" s="1">
+        <f t="shared" si="20"/>
         <v>0.96764271024116721</v>
       </c>
-      <c r="H75">
-        <f t="shared" si="15"/>
+      <c r="H75" s="1">
+        <f t="shared" si="21"/>
         <v>2.3724925306702955</v>
       </c>
       <c r="M75" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N75" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O75" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P75" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <f t="shared" si="26"/>
+        <v>3127456</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4655,36 +5884,52 @@
       <c r="E76">
         <v>17389650</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="13"/>
+      <c r="F76" s="1">
+        <f t="shared" si="19"/>
         <v>14.68106126684377</v>
       </c>
-      <c r="G76">
-        <f t="shared" si="14"/>
+      <c r="G76" s="1">
+        <f t="shared" si="20"/>
         <v>1.0682758961184298</v>
       </c>
-      <c r="H76">
-        <f t="shared" si="15"/>
+      <c r="H76" s="1">
+        <f t="shared" si="21"/>
         <v>15.062403259573134</v>
       </c>
       <c r="M76" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N76" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O76" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P76" s="3">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="V76" s="3">
+        <f t="shared" si="26"/>
+        <v>2309014</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4700,36 +5945,52 @@
       <c r="E77">
         <v>97358508</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="13"/>
+      <c r="F77" s="1">
+        <f t="shared" si="19"/>
         <v>1.0000024852969103</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="14"/>
+      <c r="G77" s="1">
+        <f t="shared" si="20"/>
         <v>14.233220993039852</v>
       </c>
-      <c r="H77">
-        <f t="shared" si="15"/>
+      <c r="H77" s="1">
+        <f t="shared" si="21"/>
         <v>14.233223478336763</v>
       </c>
       <c r="M77" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N77" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O77" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P77" s="3">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="V77" s="3">
+        <f t="shared" si="26"/>
+        <v>13680458</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4745,36 +6006,52 @@
       <c r="E78">
         <v>22719031</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="13"/>
+      <c r="F78" s="1">
+        <f t="shared" si="19"/>
         <v>1.0305334849400629</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="14"/>
+      <c r="G78" s="1">
+        <f t="shared" si="20"/>
         <v>2.2624545288337647</v>
       </c>
-      <c r="H78">
-        <f t="shared" si="15"/>
+      <c r="H78" s="1">
+        <f t="shared" si="21"/>
         <v>2.2935882891978792</v>
       </c>
       <c r="M78" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N78" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O78" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P78" s="3">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="V78" s="3">
+        <f t="shared" si="26"/>
+        <v>19810906</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4790,36 +6067,52 @@
       <c r="E79">
         <v>1335780</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="13"/>
+      <c r="F79" s="1">
+        <f t="shared" si="19"/>
         <v>1.0005953133048879</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="14"/>
+      <c r="G79" s="1">
+        <f t="shared" si="20"/>
         <v>1.081313317847088</v>
       </c>
-      <c r="H79">
-        <f t="shared" si="15"/>
+      <c r="H79" s="1">
+        <f t="shared" si="21"/>
         <v>1.0819151107525733</v>
       </c>
       <c r="M79" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N79" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O79" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P79" s="3">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V79" s="3">
+        <f t="shared" si="26"/>
+        <v>2469288</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4835,36 +6128,52 @@
       <c r="E80">
         <v>69238589</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="13"/>
+      <c r="F80" s="1">
+        <f t="shared" si="19"/>
         <v>2.6837068605193743</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="14"/>
+      <c r="G80" s="1">
+        <f t="shared" si="20"/>
         <v>24.22499230094817</v>
       </c>
-      <c r="H80">
-        <f t="shared" si="15"/>
+      <c r="H80" s="1">
+        <f t="shared" si="21"/>
         <v>25.908699161467545</v>
       </c>
       <c r="M80" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N80" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O80" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="P80" s="3">
-        <f t="shared" si="19"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="V80" s="3">
+        <f t="shared" si="26"/>
+        <v>5344814</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4880,32 +6189,48 @@
       <c r="E81">
         <v>1145765</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="13"/>
+      <c r="F81" s="1">
+        <f t="shared" si="19"/>
         <v>1.3571124888233588</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="14"/>
+      <c r="G81" s="1">
+        <f t="shared" si="20"/>
         <v>0.9997939353027907</v>
       </c>
-      <c r="H81">
-        <f t="shared" si="15"/>
+      <c r="H81" s="1">
+        <f t="shared" si="21"/>
         <v>1.3569064241261495</v>
       </c>
       <c r="M81" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P81" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <f t="shared" si="26"/>
+        <v>1688790</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Y81">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
